--- a/src/test/resources/demo.xlsx
+++ b/src/test/resources/demo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\woodwhales\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\woodwhales-common\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D72CA1A8-C18B-486C-8391-1CA9AEF920EF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97063E0C-1E30-4C6B-9C98-C2216D6E3298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5115" yWindow="2505" windowWidth="20550" windowHeight="11835" xr2:uid="{0487492B-EC4D-43B5-A44D-ED4F1AE7B453}"/>
+    <workbookView xWindow="-21710" yWindow="-3710" windowWidth="21820" windowHeight="14020" xr2:uid="{0487492B-EC4D-43B5-A44D-ED4F1AE7B453}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,6 +65,14 @@
   </si>
   <si>
     <t>王五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出生日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -111,8 +119,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -429,15 +443,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDDECB5B-E943-4717-BC7A-C921AE7474BE}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -447,8 +465,14 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -458,8 +482,14 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
+      <c r="D2" s="1">
+        <v>44406</v>
+      </c>
+      <c r="E2" s="2">
+        <v>44406.375</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -469,8 +499,14 @@
       <c r="C3" t="s">
         <v>3</v>
       </c>
+      <c r="D3" s="1">
+        <v>44407</v>
+      </c>
+      <c r="E3" s="2">
+        <v>44406.375</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -479,6 +515,12 @@
       </c>
       <c r="C4" t="s">
         <v>4</v>
+      </c>
+      <c r="D4" s="1">
+        <v>44408</v>
+      </c>
+      <c r="E4" s="2">
+        <v>44406.375</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/demo.xlsx
+++ b/src/test/resources/demo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\woodwhales-common\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\woodwhales-common\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97063E0C-1E30-4C6B-9C98-C2216D6E3298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D229ADCB-C256-48B7-8B5F-1E7814C7D5C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21710" yWindow="-3710" windowWidth="21820" windowHeight="14020" xr2:uid="{0487492B-EC4D-43B5-A44D-ED4F1AE7B453}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27645" windowHeight="16440" xr2:uid="{0487492B-EC4D-43B5-A44D-ED4F1AE7B453}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,6 +73,22 @@
   </si>
   <si>
     <t>创建时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -443,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDDECB5B-E943-4717-BC7A-C921AE7474BE}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -455,7 +471,7 @@
     <col min="5" max="5" width="14.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -471,8 +487,11 @@
       <c r="E1" t="s">
         <v>9</v>
       </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -483,13 +502,16 @@
         <v>3</v>
       </c>
       <c r="D2" s="1">
-        <v>44406</v>
+        <v>34179</v>
       </c>
       <c r="E2" s="2">
         <v>44406.375</v>
       </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -500,13 +522,16 @@
         <v>3</v>
       </c>
       <c r="D3" s="1">
-        <v>44407</v>
+        <v>34545</v>
       </c>
       <c r="E3" s="2">
-        <v>44406.375</v>
+        <v>44405.375</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -517,10 +542,13 @@
         <v>4</v>
       </c>
       <c r="D4" s="1">
-        <v>44408</v>
+        <v>34911</v>
       </c>
       <c r="E4" s="2">
-        <v>44406.375</v>
+        <v>44404.375</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
